--- a/Daten_ORG.xlsx
+++ b/Daten_ORG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwwti\Documents\GitHub\SpaeneRechner\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwwti\Desktop\SP Copy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3703284-17A2-4469-B0D1-8393F0869200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1201AC6E-9B60-4509-976F-CF491878F9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="7980" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Simple" sheetId="3" r:id="rId1"/>
@@ -31,6 +31,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Tim Zschuppe</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{260D035F-C8B7-4A01-A206-B0CFE54F7017}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Vorschubgeschwindigkeit in m/min</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{E55C8AEB-0904-48EF-8F19-BC13279484A3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Durchmesser in mm</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="130">
   <si>
@@ -428,7 +466,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,6 +517,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -953,12 +998,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{752EBD5F-FD4E-42B8-A816-D37443417483}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{752EBD5F-FD4E-42B8-A816-D37443417483}">
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1360,6 +1405,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740200000000005" bottom="0.78740200000000005" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5873,7 +5919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8B99F8-7DEA-4696-A81C-3A79A332CA56}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>

--- a/Daten_ORG.xlsx
+++ b/Daten_ORG.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwwti\Desktop\SP Copy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwwti\Documents\GitHub\SpaeneRechner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1201AC6E-9B60-4509-976F-CF491878F9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58390485-0516-4B84-A98A-16D8385303EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1003,7 +1003,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Daten_ORG.xlsx
+++ b/Daten_ORG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwwti\Documents\GitHub\SpaeneRechner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58390485-0516-4B84-A98A-16D8385303EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DC83D5-11A7-464A-9D91-365B1238F7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Simple" sheetId="3" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="133">
   <si>
     <t>Testmaterial 10</t>
   </si>
@@ -429,9 +429,6 @@
     <t>Der standart Schneidstoff fuer Werkzeuge (HSS|VHM|Keramik)</t>
   </si>
   <si>
-    <t>M1</t>
-  </si>
-  <si>
     <t>M2</t>
   </si>
   <si>
@@ -460,13 +457,25 @@
   </si>
   <si>
     <t>M16</t>
+  </si>
+  <si>
+    <t>INOX</t>
+  </si>
+  <si>
+    <t>Testmaterial 6</t>
+  </si>
+  <si>
+    <t>M2.5</t>
+  </si>
+  <si>
+    <t>Steigung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,6 +533,12 @@
       <color indexed="81"/>
       <name val="Segoe UI"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -659,7 +674,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -717,6 +732,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1002,8 +1023,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4647,7 +4668,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5919,8 +5940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8B99F8-7DEA-4696-A81C-3A79A332CA56}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5936,134 +5957,282 @@
         <v>119</v>
       </c>
       <c r="C1" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="K1" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="L1" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="L1" s="18" t="s">
+    </row>
+    <row r="2" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2">
+        <v>12</v>
+      </c>
+      <c r="I3" s="2">
+        <v>12</v>
+      </c>
+      <c r="J3" s="2">
+        <v>12</v>
+      </c>
+      <c r="K3" s="2">
+        <v>12</v>
+      </c>
+      <c r="L3" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6">
+        <v>11</v>
+      </c>
+      <c r="E4" s="6">
+        <v>11</v>
+      </c>
+      <c r="F4" s="6">
+        <v>11</v>
+      </c>
+      <c r="G4" s="6">
+        <v>11</v>
+      </c>
+      <c r="H4" s="6">
+        <v>11</v>
+      </c>
+      <c r="I4" s="6">
+        <v>11</v>
+      </c>
+      <c r="J4" s="6">
+        <v>11</v>
+      </c>
+      <c r="K4" s="6">
+        <v>11</v>
+      </c>
+      <c r="L4" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2">
+        <v>12</v>
+      </c>
+      <c r="H5" s="2">
+        <v>12</v>
+      </c>
+      <c r="I5" s="2">
+        <v>12</v>
+      </c>
+      <c r="J5" s="2">
+        <v>12</v>
+      </c>
+      <c r="K5" s="2">
+        <v>12</v>
+      </c>
+      <c r="L5" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6">
+        <v>7</v>
+      </c>
+      <c r="C6" s="6">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6">
+        <v>7</v>
+      </c>
+      <c r="F6" s="6">
+        <v>7</v>
+      </c>
+      <c r="G6" s="6">
+        <v>7</v>
+      </c>
+      <c r="H6" s="6">
+        <v>7</v>
+      </c>
+      <c r="I6" s="6">
+        <v>7</v>
+      </c>
+      <c r="J6" s="6">
+        <v>7</v>
+      </c>
+      <c r="K6" s="6">
+        <v>7</v>
+      </c>
+      <c r="L6" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2">
+        <v>4</v>
+      </c>
+      <c r="I7" s="2">
+        <v>4</v>
+      </c>
+      <c r="J7" s="2">
+        <v>4</v>
+      </c>
+      <c r="K7" s="2">
+        <v>4</v>
+      </c>
+      <c r="L7" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="A8" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="6">
+        <v>15</v>
+      </c>
+      <c r="C8" s="6">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6">
+        <v>15</v>
+      </c>
+      <c r="E8" s="6">
+        <v>15</v>
+      </c>
+      <c r="F8" s="6">
+        <v>15</v>
+      </c>
+      <c r="G8" s="6">
+        <v>15</v>
+      </c>
+      <c r="H8" s="6">
+        <v>15</v>
+      </c>
+      <c r="I8" s="6">
+        <v>15</v>
+      </c>
+      <c r="J8" s="6">
+        <v>15</v>
+      </c>
+      <c r="K8" s="6">
+        <v>15</v>
+      </c>
+      <c r="L8" s="6">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
